--- a/biology/Botanique/Laitue_vivace/Laitue_vivace.xlsx
+++ b/biology/Botanique/Laitue_vivace/Laitue_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactuca perennis
 La laitue vivace (Lactuca perennis) est une espèce de plante à fleurs de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée glabre, aux tiges érigées, se ramifiant, aux feuilles vert-grisâtre, pennatilobées, les inférieures légèrement pétiolées, les supérieures engainant en partie la tige, aux capitules bleu à lilas, à grands pédoncules.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : racème de capitules
@@ -582,10 +598,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : friches vivaces rudérales pionnières, mésoxérophiles, médioeuropéennes.
-Étage collinéen et montagnard, jusqu'à 1700 m d'altitude[1].
+Étage collinéen et montagnard, jusqu'à 1700 m d'altitude.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Européen méridional. En France : çà et là avec une fréquence très inégale ; rare dans l'Ouest.
 </t>
@@ -645,10 +665,12 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En France, cette plante bénéficie d'un arrêté de protection dans la région Aquitaine.
-L'espèce est évaluée comme non préoccupante à l'échelle française[2].
+L'espèce est évaluée comme non préoccupante à l'échelle française.
 L'espèce semble se raréfier : elle est considérée en danger critique (CR) en Nord-Pas-de-Calais, Ile de France et Alsace ; en danger (EN) en Haute-Normandie ; elle est considérée vulnérable (VU) en Basse-Normandie et région Centre ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, dans la région des Pays de la Loire.
 Voir aussi
 Liste des espèces végétales protégées en Aquitaine
